--- a/examples/wireshark/data/wireshark_comments_test.xlsx
+++ b/examples/wireshark/data/wireshark_comments_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-5260" yWindow="-24420" windowWidth="37640" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="3" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <t>change_id</t>
   </si>
   <si>
-    <t>revision-id</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>end_line</t>
   </si>
   <si>
-    <t>LOC</t>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
@@ -1753,6 +1747,12 @@
   </si>
   <si>
     <t>Unused?</t>
+  </si>
+  <si>
+    <t>revision_id</t>
+  </si>
+  <si>
+    <t>line_contents</t>
   </si>
 </sst>
 </file>
@@ -3223,7 +3223,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3238,84 +3238,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>575</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="84">
       <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" t="s">
         <v>371</v>
-      </c>
-      <c r="B2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" t="s">
-        <v>373</v>
       </c>
       <c r="D2">
         <v>2659</v>
@@ -3327,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -3383,13 +3383,13 @@
     </row>
     <row r="3" spans="1:24" ht="28">
       <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" t="s">
         <v>371</v>
-      </c>
-      <c r="B3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" t="s">
-        <v>373</v>
       </c>
       <c r="D3">
         <v>2659</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -3531,13 +3531,13 @@
     </row>
     <row r="5" spans="1:24" ht="28">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3549,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="6" spans="1:24" ht="28">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3623,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -3679,13 +3679,13 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>203</v>
@@ -3697,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -3753,13 +3753,13 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>203</v>
@@ -3771,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -3827,13 +3827,13 @@
     </row>
     <row r="9" spans="1:24" ht="56">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>209</v>
@@ -3845,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -3901,13 +3901,13 @@
     </row>
     <row r="10" spans="1:24" ht="28">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>209</v>
@@ -3919,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -3975,13 +3975,13 @@
     </row>
     <row r="11" spans="1:24" ht="70">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>52</v>
@@ -3993,13 +3993,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -4049,13 +4049,13 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>52</v>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -4123,13 +4123,13 @@
     </row>
     <row r="13" spans="1:24" ht="56">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>94</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -4197,13 +4197,13 @@
     </row>
     <row r="14" spans="1:24" ht="98">
       <c r="A14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B14" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" t="s">
         <v>455</v>
-      </c>
-      <c r="B14" t="s">
-        <v>456</v>
-      </c>
-      <c r="C14" t="s">
-        <v>457</v>
       </c>
       <c r="D14">
         <v>7511</v>
@@ -4215,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -4271,13 +4271,13 @@
     </row>
     <row r="15" spans="1:24" ht="70">
       <c r="A15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" t="s">
         <v>455</v>
-      </c>
-      <c r="B15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C15" t="s">
-        <v>457</v>
       </c>
       <c r="D15">
         <v>7511</v>
@@ -4289,13 +4289,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
+        <v>456</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -4345,13 +4345,13 @@
     </row>
     <row r="16" spans="1:24" ht="28">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16">
         <v>115</v>
@@ -4363,13 +4363,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -4419,13 +4419,13 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D17">
         <v>115</v>
@@ -4437,13 +4437,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -4493,13 +4493,13 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18">
         <v>117</v>
@@ -4511,13 +4511,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -4567,13 +4567,13 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D19">
         <v>117</v>
@@ -4585,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -4641,13 +4641,13 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>81</v>
@@ -4659,13 +4659,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -4715,13 +4715,13 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>81</v>
@@ -4733,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -4789,13 +4789,13 @@
     </row>
     <row r="22" spans="1:24" ht="28">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22">
         <v>182</v>
@@ -4807,13 +4807,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D23">
         <v>182</v>
@@ -4881,13 +4881,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -4937,13 +4937,13 @@
     </row>
     <row r="24" spans="1:24" ht="28">
       <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" t="s">
-        <v>112</v>
       </c>
       <c r="D24">
         <v>129</v>
@@ -4955,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -5011,13 +5011,13 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
         <v>110</v>
-      </c>
-      <c r="B25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
       </c>
       <c r="D25">
         <v>129</v>
@@ -5029,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -5085,13 +5085,13 @@
     </row>
     <row r="26" spans="1:24" ht="112">
       <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
         <v>110</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
       </c>
       <c r="D26">
         <v>129</v>
@@ -5103,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -5159,13 +5159,13 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" t="s">
         <v>292</v>
-      </c>
-      <c r="B27" t="s">
-        <v>293</v>
-      </c>
-      <c r="C27" t="s">
-        <v>294</v>
       </c>
       <c r="D27">
         <v>401</v>
@@ -5177,13 +5177,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -5233,13 +5233,13 @@
     </row>
     <row r="28" spans="1:24" ht="28">
       <c r="A28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" t="s">
+        <v>391</v>
+      </c>
+      <c r="C28" t="s">
         <v>388</v>
-      </c>
-      <c r="B28" t="s">
-        <v>393</v>
-      </c>
-      <c r="C28" t="s">
-        <v>390</v>
       </c>
       <c r="D28">
         <v>526</v>
@@ -5251,13 +5251,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -5307,13 +5307,13 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" t="s">
         <v>388</v>
-      </c>
-      <c r="B29" t="s">
-        <v>393</v>
-      </c>
-      <c r="C29" t="s">
-        <v>390</v>
       </c>
       <c r="D29">
         <v>526</v>
@@ -5325,13 +5325,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -5381,13 +5381,13 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
+        <v>562</v>
+      </c>
+      <c r="B30" t="s">
+        <v>563</v>
+      </c>
+      <c r="C30" t="s">
         <v>564</v>
-      </c>
-      <c r="B30" t="s">
-        <v>565</v>
-      </c>
-      <c r="C30" t="s">
-        <v>566</v>
       </c>
       <c r="D30">
         <v>214</v>
@@ -5399,13 +5399,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -5455,13 +5455,13 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
+        <v>562</v>
+      </c>
+      <c r="B31" t="s">
+        <v>563</v>
+      </c>
+      <c r="C31" t="s">
         <v>564</v>
-      </c>
-      <c r="B31" t="s">
-        <v>565</v>
-      </c>
-      <c r="C31" t="s">
-        <v>566</v>
       </c>
       <c r="D31">
         <v>214</v>
@@ -5473,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
+        <v>565</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>569</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -5529,13 +5529,13 @@
     </row>
     <row r="32" spans="1:24" ht="28">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>1020</v>
@@ -5547,13 +5547,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -5603,13 +5603,13 @@
     </row>
     <row r="33" spans="1:24" ht="70">
       <c r="A33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>1020</v>
@@ -5621,13 +5621,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
+        <v>279</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -5677,13 +5677,13 @@
     </row>
     <row r="34" spans="1:24" ht="28">
       <c r="A34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>1020</v>
@@ -5695,13 +5695,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -5751,13 +5751,13 @@
     </row>
     <row r="35" spans="1:24" ht="70">
       <c r="A35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35">
         <v>1020</v>
@@ -5769,13 +5769,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -5825,13 +5825,13 @@
     </row>
     <row r="36" spans="1:24" ht="56">
       <c r="A36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <v>1020</v>
@@ -5843,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -5899,13 +5899,13 @@
     </row>
     <row r="37" spans="1:24" ht="28">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>1020</v>
@@ -5917,13 +5917,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -5973,13 +5973,13 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>1020</v>
@@ -5991,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -6047,13 +6047,13 @@
     </row>
     <row r="39" spans="1:24" ht="28">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D39">
         <v>43</v>
@@ -6065,13 +6065,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -6121,13 +6121,13 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D40">
         <v>43</v>
@@ -6139,13 +6139,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -6195,13 +6195,13 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" t="s">
         <v>245</v>
-      </c>
-      <c r="B41" t="s">
-        <v>252</v>
-      </c>
-      <c r="C41" t="s">
-        <v>247</v>
       </c>
       <c r="D41">
         <v>251</v>
@@ -6213,13 +6213,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -6269,13 +6269,13 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" t="s">
         <v>245</v>
-      </c>
-      <c r="B42" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" t="s">
-        <v>247</v>
       </c>
       <c r="D42">
         <v>251</v>
@@ -6287,13 +6287,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -6343,13 +6343,13 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" t="s">
         <v>245</v>
-      </c>
-      <c r="B43" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" t="s">
-        <v>247</v>
       </c>
       <c r="D43">
         <v>300</v>
@@ -6361,13 +6361,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
@@ -6417,13 +6417,13 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" t="s">
         <v>245</v>
-      </c>
-      <c r="B44" t="s">
-        <v>252</v>
-      </c>
-      <c r="C44" t="s">
-        <v>247</v>
       </c>
       <c r="D44">
         <v>300</v>
@@ -6435,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -6491,13 +6491,13 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" t="s">
         <v>245</v>
-      </c>
-      <c r="B45" t="s">
-        <v>252</v>
-      </c>
-      <c r="C45" t="s">
-        <v>247</v>
       </c>
       <c r="D45">
         <v>382</v>
@@ -6509,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
@@ -6565,13 +6565,13 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" t="s">
         <v>245</v>
-      </c>
-      <c r="B46" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46" t="s">
-        <v>247</v>
       </c>
       <c r="D46">
         <v>382</v>
@@ -6583,13 +6583,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J46" s="2">
         <v>0</v>
@@ -6639,13 +6639,13 @@
     </row>
     <row r="47" spans="1:24" ht="28">
       <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" t="s">
         <v>245</v>
-      </c>
-      <c r="B47" t="s">
-        <v>252</v>
-      </c>
-      <c r="C47" t="s">
-        <v>247</v>
       </c>
       <c r="D47">
         <v>438</v>
@@ -6657,13 +6657,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -6713,13 +6713,13 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" t="s">
         <v>245</v>
-      </c>
-      <c r="B48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" t="s">
-        <v>247</v>
       </c>
       <c r="D48">
         <v>438</v>
@@ -6731,13 +6731,13 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -6787,13 +6787,13 @@
     </row>
     <row r="49" spans="1:24" ht="42">
       <c r="A49" t="s">
+        <v>496</v>
+      </c>
+      <c r="B49" t="s">
+        <v>497</v>
+      </c>
+      <c r="C49" t="s">
         <v>498</v>
-      </c>
-      <c r="B49" t="s">
-        <v>499</v>
-      </c>
-      <c r="C49" t="s">
-        <v>500</v>
       </c>
       <c r="D49">
         <v>76</v>
@@ -6805,13 +6805,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
@@ -6861,13 +6861,13 @@
     </row>
     <row r="50" spans="1:24" ht="84">
       <c r="A50" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" t="s">
+        <v>497</v>
+      </c>
+      <c r="C50" t="s">
         <v>498</v>
-      </c>
-      <c r="B50" t="s">
-        <v>499</v>
-      </c>
-      <c r="C50" t="s">
-        <v>500</v>
       </c>
       <c r="D50">
         <v>76</v>
@@ -6879,13 +6879,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
+        <v>499</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="I50" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -6935,13 +6935,13 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
+        <v>496</v>
+      </c>
+      <c r="B51" t="s">
+        <v>497</v>
+      </c>
+      <c r="C51" t="s">
         <v>498</v>
-      </c>
-      <c r="B51" t="s">
-        <v>499</v>
-      </c>
-      <c r="C51" t="s">
-        <v>500</v>
       </c>
       <c r="D51">
         <v>76</v>
@@ -6953,13 +6953,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J51" s="2">
         <v>0</v>
@@ -7009,13 +7009,13 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" t="s">
         <v>356</v>
-      </c>
-      <c r="B52" t="s">
-        <v>357</v>
-      </c>
-      <c r="C52" t="s">
-        <v>358</v>
       </c>
       <c r="D52">
         <v>1555</v>
@@ -7027,13 +7027,13 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -7083,13 +7083,13 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
+        <v>354</v>
+      </c>
+      <c r="B53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C53" t="s">
         <v>356</v>
-      </c>
-      <c r="B53" t="s">
-        <v>357</v>
-      </c>
-      <c r="C53" t="s">
-        <v>358</v>
       </c>
       <c r="D53">
         <v>1555</v>
@@ -7101,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -7157,13 +7157,13 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D54">
         <v>1609</v>
@@ -7175,13 +7175,13 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -7231,13 +7231,13 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55">
         <v>1609</v>
@@ -7249,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
+        <v>306</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="I55" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -7305,13 +7305,13 @@
     </row>
     <row r="56" spans="1:24" ht="56">
       <c r="A56" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D56">
         <v>3036</v>
@@ -7323,13 +7323,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -7379,13 +7379,13 @@
     </row>
     <row r="57" spans="1:24" ht="84">
       <c r="A57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57">
         <v>3036</v>
@@ -7397,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
+        <v>491</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="I57" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -7453,13 +7453,13 @@
     </row>
     <row r="58" spans="1:24" ht="42">
       <c r="A58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B58" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D58">
         <v>3036</v>
@@ -7471,13 +7471,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
@@ -7527,13 +7527,13 @@
     </row>
     <row r="59" spans="1:24" ht="84">
       <c r="A59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D59">
         <v>3036</v>
@@ -7545,13 +7545,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -7601,13 +7601,13 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="s">
+        <v>475</v>
+      </c>
+      <c r="B60" t="s">
+        <v>476</v>
+      </c>
+      <c r="C60" t="s">
         <v>477</v>
-      </c>
-      <c r="B60" t="s">
-        <v>478</v>
-      </c>
-      <c r="C60" t="s">
-        <v>479</v>
       </c>
       <c r="D60">
         <v>1171</v>
@@ -7619,13 +7619,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -7675,13 +7675,13 @@
     </row>
     <row r="61" spans="1:24" ht="28">
       <c r="A61" t="s">
+        <v>475</v>
+      </c>
+      <c r="B61" t="s">
+        <v>476</v>
+      </c>
+      <c r="C61" t="s">
         <v>477</v>
-      </c>
-      <c r="B61" t="s">
-        <v>478</v>
-      </c>
-      <c r="C61" t="s">
-        <v>479</v>
       </c>
       <c r="D61">
         <v>1171</v>
@@ -7693,13 +7693,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
+        <v>478</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="I61" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J61" s="2">
         <v>0</v>
@@ -7749,13 +7749,13 @@
     </row>
     <row r="62" spans="1:24" ht="98">
       <c r="A62" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B62" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>422</v>
@@ -7767,13 +7767,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -7823,13 +7823,13 @@
     </row>
     <row r="63" spans="1:24" ht="42">
       <c r="A63" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B63" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>422</v>
@@ -7841,13 +7841,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
+        <v>522</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>526</v>
-      </c>
       <c r="I63" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
@@ -7897,13 +7897,13 @@
     </row>
     <row r="64" spans="1:24" ht="42">
       <c r="A64" t="s">
+        <v>386</v>
+      </c>
+      <c r="B64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" t="s">
         <v>388</v>
-      </c>
-      <c r="B64" t="s">
-        <v>389</v>
-      </c>
-      <c r="C64" t="s">
-        <v>390</v>
       </c>
       <c r="D64">
         <v>1471</v>
@@ -7915,13 +7915,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J64" s="2">
         <v>0</v>
@@ -7971,13 +7971,13 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B65" t="s">
+        <v>387</v>
+      </c>
+      <c r="C65" t="s">
         <v>388</v>
-      </c>
-      <c r="B65" t="s">
-        <v>389</v>
-      </c>
-      <c r="C65" t="s">
-        <v>390</v>
       </c>
       <c r="D65">
         <v>1471</v>
@@ -7989,13 +7989,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -8045,13 +8045,13 @@
     </row>
     <row r="66" spans="1:24" ht="70">
       <c r="A66" t="s">
+        <v>444</v>
+      </c>
+      <c r="B66" t="s">
+        <v>450</v>
+      </c>
+      <c r="C66" t="s">
         <v>446</v>
-      </c>
-      <c r="B66" t="s">
-        <v>452</v>
-      </c>
-      <c r="C66" t="s">
-        <v>448</v>
       </c>
       <c r="D66">
         <v>51</v>
@@ -8063,13 +8063,13 @@
         <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
@@ -8119,13 +8119,13 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67">
         <v>5843</v>
@@ -8137,13 +8137,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
@@ -8193,13 +8193,13 @@
     </row>
     <row r="68" spans="1:24" ht="42">
       <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
         <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" t="s">
-        <v>191</v>
       </c>
       <c r="D68">
         <v>792</v>
@@ -8211,13 +8211,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J68" s="2">
         <v>0</v>
@@ -8267,13 +8267,13 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" t="s">
+        <v>295</v>
+      </c>
+      <c r="B69" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" t="s">
         <v>297</v>
-      </c>
-      <c r="B69" t="s">
-        <v>298</v>
-      </c>
-      <c r="C69" t="s">
-        <v>299</v>
       </c>
       <c r="D69">
         <v>4596</v>
@@ -8285,13 +8285,13 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
@@ -8341,13 +8341,13 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" t="s">
+        <v>295</v>
+      </c>
+      <c r="B70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C70" t="s">
         <v>297</v>
-      </c>
-      <c r="B70" t="s">
-        <v>298</v>
-      </c>
-      <c r="C70" t="s">
-        <v>299</v>
       </c>
       <c r="D70">
         <v>4596</v>
@@ -8359,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
+        <v>298</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="I70" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J70" s="2">
         <v>0</v>
@@ -8415,13 +8415,13 @@
     </row>
     <row r="71" spans="1:24" ht="28">
       <c r="A71" t="s">
+        <v>485</v>
+      </c>
+      <c r="B71" t="s">
+        <v>486</v>
+      </c>
+      <c r="C71" t="s">
         <v>487</v>
-      </c>
-      <c r="B71" t="s">
-        <v>488</v>
-      </c>
-      <c r="C71" t="s">
-        <v>489</v>
       </c>
       <c r="D71">
         <v>375</v>
@@ -8433,13 +8433,13 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J71" s="2">
         <v>0</v>
@@ -8489,13 +8489,13 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
+        <v>485</v>
+      </c>
+      <c r="B72" t="s">
+        <v>486</v>
+      </c>
+      <c r="C72" t="s">
         <v>487</v>
-      </c>
-      <c r="B72" t="s">
-        <v>488</v>
-      </c>
-      <c r="C72" t="s">
-        <v>489</v>
       </c>
       <c r="D72">
         <v>375</v>
@@ -8507,13 +8507,13 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
+        <v>488</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="I72" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
@@ -8563,13 +8563,13 @@
     </row>
     <row r="73" spans="1:24" ht="56">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D73">
         <v>7</v>
@@ -8581,13 +8581,13 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J73" s="2">
         <v>0</v>
@@ -8637,13 +8637,13 @@
     </row>
     <row r="74" spans="1:24" ht="28">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D74">
         <v>236</v>
@@ -8655,13 +8655,13 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J74" s="2">
         <v>0</v>
@@ -8711,13 +8711,13 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D75">
         <v>236</v>
@@ -8729,13 +8729,13 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
@@ -8785,13 +8785,13 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D76">
         <v>280</v>
@@ -8803,13 +8803,13 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J76" s="2">
         <v>0</v>
@@ -8859,13 +8859,13 @@
     </row>
     <row r="77" spans="1:24" ht="28">
       <c r="A77" t="s">
+        <v>436</v>
+      </c>
+      <c r="B77" t="s">
+        <v>437</v>
+      </c>
+      <c r="C77" t="s">
         <v>438</v>
-      </c>
-      <c r="B77" t="s">
-        <v>439</v>
-      </c>
-      <c r="C77" t="s">
-        <v>440</v>
       </c>
       <c r="D77">
         <v>101</v>
@@ -8877,13 +8877,13 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J77" s="2">
         <v>0</v>
@@ -8933,13 +8933,13 @@
     </row>
     <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B78" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D78">
         <v>1960</v>
@@ -8951,13 +8951,13 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J78" s="2">
         <v>0</v>
@@ -9007,13 +9007,13 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" t="s">
         <v>325</v>
-      </c>
-      <c r="B79" t="s">
-        <v>326</v>
-      </c>
-      <c r="C79" t="s">
-        <v>327</v>
       </c>
       <c r="D79">
         <v>7</v>
@@ -9025,13 +9025,13 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J79" s="2">
         <v>0</v>
@@ -9081,13 +9081,13 @@
     </row>
     <row r="80" spans="1:24">
       <c r="A80" t="s">
+        <v>323</v>
+      </c>
+      <c r="B80" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" t="s">
         <v>325</v>
-      </c>
-      <c r="B80" t="s">
-        <v>326</v>
-      </c>
-      <c r="C80" t="s">
-        <v>327</v>
       </c>
       <c r="D80">
         <v>7</v>
@@ -9099,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J80" s="2">
         <v>0</v>
@@ -9155,13 +9155,13 @@
     </row>
     <row r="81" spans="1:24" ht="42">
       <c r="A81" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B81" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C81" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D81">
         <v>20</v>
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J81" s="2">
         <v>0</v>
@@ -9229,13 +9229,13 @@
     </row>
     <row r="82" spans="1:24" ht="28">
       <c r="A82" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B82" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C82" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D82">
         <v>20</v>
@@ -9247,13 +9247,13 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
+        <v>329</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="I82" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J82" s="2">
         <v>0</v>
@@ -9303,13 +9303,13 @@
     </row>
     <row r="83" spans="1:24" ht="42">
       <c r="A83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" t="s">
         <v>143</v>
-      </c>
-      <c r="B83" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" t="s">
-        <v>145</v>
       </c>
       <c r="D83">
         <v>3958</v>
@@ -9321,13 +9321,13 @@
         <v>3958</v>
       </c>
       <c r="G83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
@@ -9377,13 +9377,13 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" t="s">
         <v>143</v>
-      </c>
-      <c r="B84" t="s">
-        <v>144</v>
-      </c>
-      <c r="C84" t="s">
-        <v>145</v>
       </c>
       <c r="D84">
         <v>3958</v>
@@ -9395,13 +9395,13 @@
         <v>3958</v>
       </c>
       <c r="G84" t="s">
+        <v>144</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="I84" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J84" s="2">
         <v>0</v>
@@ -9451,13 +9451,13 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" t="s">
         <v>143</v>
-      </c>
-      <c r="B85" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" t="s">
-        <v>145</v>
       </c>
       <c r="D85">
         <v>3958</v>
@@ -9469,13 +9469,13 @@
         <v>3958</v>
       </c>
       <c r="G85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J85" s="2">
         <v>0</v>
@@ -9525,13 +9525,13 @@
     </row>
     <row r="86" spans="1:24" ht="42">
       <c r="A86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" t="s">
         <v>143</v>
-      </c>
-      <c r="B86" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" t="s">
-        <v>145</v>
       </c>
       <c r="D86">
         <v>4003</v>
@@ -9543,13 +9543,13 @@
         <v>4003</v>
       </c>
       <c r="G86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J86" s="2">
         <v>0</v>
@@ -9599,13 +9599,13 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" t="s">
         <v>143</v>
-      </c>
-      <c r="B87" t="s">
-        <v>144</v>
-      </c>
-      <c r="C87" t="s">
-        <v>145</v>
       </c>
       <c r="D87">
         <v>4003</v>
@@ -9617,13 +9617,13 @@
         <v>4003</v>
       </c>
       <c r="G87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J87" s="2">
         <v>0</v>
@@ -9673,13 +9673,13 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" t="s">
         <v>143</v>
-      </c>
-      <c r="B88" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" t="s">
-        <v>145</v>
       </c>
       <c r="D88">
         <v>4003</v>
@@ -9691,13 +9691,13 @@
         <v>4003</v>
       </c>
       <c r="G88" t="s">
+        <v>147</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="I88" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J88" s="2">
         <v>0</v>
@@ -9747,13 +9747,13 @@
     </row>
     <row r="89" spans="1:24" ht="28">
       <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
         <v>101</v>
-      </c>
-      <c r="B89" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" t="s">
-        <v>103</v>
       </c>
       <c r="D89">
         <v>246</v>
@@ -9765,13 +9765,13 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J89" s="2">
         <v>0</v>
@@ -9821,13 +9821,13 @@
     </row>
     <row r="90" spans="1:24" ht="28">
       <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
         <v>101</v>
-      </c>
-      <c r="B90" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" t="s">
-        <v>103</v>
       </c>
       <c r="D90">
         <v>246</v>
@@ -9839,13 +9839,13 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
+        <v>102</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I90" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J90" s="2">
         <v>0</v>
@@ -9895,13 +9895,13 @@
     </row>
     <row r="91" spans="1:24" ht="42">
       <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
         <v>101</v>
-      </c>
-      <c r="B91" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" t="s">
-        <v>103</v>
       </c>
       <c r="D91">
         <v>246</v>
@@ -9913,13 +9913,13 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J91" s="2">
         <v>0</v>
@@ -9969,13 +9969,13 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" t="s">
         <v>101</v>
-      </c>
-      <c r="B92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C92" t="s">
-        <v>103</v>
       </c>
       <c r="D92">
         <v>246</v>
@@ -9987,13 +9987,13 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J92" s="2">
         <v>0</v>
@@ -10043,13 +10043,13 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
         <v>101</v>
-      </c>
-      <c r="B93" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" t="s">
-        <v>103</v>
       </c>
       <c r="D93">
         <v>260</v>
@@ -10061,13 +10061,13 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J93" s="2">
         <v>0</v>
@@ -10117,13 +10117,13 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
         <v>101</v>
-      </c>
-      <c r="B94" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" t="s">
-        <v>103</v>
       </c>
       <c r="D94">
         <v>260</v>
@@ -10135,13 +10135,13 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J94" s="2">
         <v>0</v>
@@ -10191,13 +10191,13 @@
     </row>
     <row r="95" spans="1:24" ht="56">
       <c r="A95" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D95">
         <v>683</v>
@@ -10209,13 +10209,13 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J95" s="2">
         <v>0</v>
@@ -10265,13 +10265,13 @@
     </row>
     <row r="96" spans="1:24" ht="28">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D96">
         <v>683</v>
@@ -10283,13 +10283,13 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
+        <v>198</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="I96" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
@@ -10339,13 +10339,13 @@
     </row>
     <row r="97" spans="1:24" ht="28">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D97">
         <v>95</v>
@@ -10357,13 +10357,13 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J97" s="2">
         <v>0</v>
@@ -10413,13 +10413,13 @@
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D98">
         <v>95</v>
@@ -10431,13 +10431,13 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J98" s="2">
         <v>0</v>
@@ -10487,13 +10487,13 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B99" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C99" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D99">
         <v>2935</v>
@@ -10505,13 +10505,13 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
@@ -10561,13 +10561,13 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B100" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C100" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D100">
         <v>2935</v>
@@ -10579,13 +10579,13 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J100" s="2">
         <v>0</v>
@@ -10635,13 +10635,13 @@
     </row>
     <row r="101" spans="1:24" ht="84">
       <c r="A101" t="s">
+        <v>568</v>
+      </c>
+      <c r="B101" t="s">
+        <v>569</v>
+      </c>
+      <c r="C101" t="s">
         <v>570</v>
-      </c>
-      <c r="B101" t="s">
-        <v>571</v>
-      </c>
-      <c r="C101" t="s">
-        <v>572</v>
       </c>
       <c r="D101">
         <v>465</v>
@@ -10653,13 +10653,13 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
@@ -10709,13 +10709,13 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
+        <v>568</v>
+      </c>
+      <c r="B102" t="s">
+        <v>569</v>
+      </c>
+      <c r="C102" t="s">
         <v>570</v>
-      </c>
-      <c r="B102" t="s">
-        <v>571</v>
-      </c>
-      <c r="C102" t="s">
-        <v>572</v>
       </c>
       <c r="D102">
         <v>465</v>
@@ -10727,13 +10727,13 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J102" s="2">
         <v>0</v>
@@ -10783,13 +10783,13 @@
     </row>
     <row r="103" spans="1:24" ht="42">
       <c r="A103" t="s">
+        <v>436</v>
+      </c>
+      <c r="B103" t="s">
+        <v>441</v>
+      </c>
+      <c r="C103" t="s">
         <v>438</v>
-      </c>
-      <c r="B103" t="s">
-        <v>443</v>
-      </c>
-      <c r="C103" t="s">
-        <v>440</v>
       </c>
       <c r="D103">
         <v>97</v>
@@ -10801,13 +10801,13 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
@@ -10857,13 +10857,13 @@
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" t="s">
         <v>245</v>
-      </c>
-      <c r="B104" t="s">
-        <v>246</v>
-      </c>
-      <c r="C104" t="s">
-        <v>247</v>
       </c>
       <c r="D104">
         <v>624</v>
@@ -10875,13 +10875,13 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
@@ -10931,13 +10931,13 @@
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" t="s">
         <v>245</v>
-      </c>
-      <c r="B105" t="s">
-        <v>246</v>
-      </c>
-      <c r="C105" t="s">
-        <v>247</v>
       </c>
       <c r="D105">
         <v>624</v>
@@ -10949,13 +10949,13 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
@@ -11005,13 +11005,13 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106" t="s">
+        <v>243</v>
+      </c>
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" t="s">
         <v>245</v>
-      </c>
-      <c r="B106" t="s">
-        <v>246</v>
-      </c>
-      <c r="C106" t="s">
-        <v>247</v>
       </c>
       <c r="D106">
         <v>638</v>
@@ -11023,13 +11023,13 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -11079,13 +11079,13 @@
     </row>
     <row r="107" spans="1:24">
       <c r="A107" t="s">
+        <v>243</v>
+      </c>
+      <c r="B107" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" t="s">
         <v>245</v>
-      </c>
-      <c r="B107" t="s">
-        <v>246</v>
-      </c>
-      <c r="C107" t="s">
-        <v>247</v>
       </c>
       <c r="D107">
         <v>638</v>
@@ -11097,13 +11097,13 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
@@ -11153,13 +11153,13 @@
     </row>
     <row r="108" spans="1:24" ht="28">
       <c r="A108" t="s">
+        <v>339</v>
+      </c>
+      <c r="B108" t="s">
+        <v>340</v>
+      </c>
+      <c r="C108" t="s">
         <v>341</v>
-      </c>
-      <c r="B108" t="s">
-        <v>342</v>
-      </c>
-      <c r="C108" t="s">
-        <v>343</v>
       </c>
       <c r="D108">
         <v>1736</v>
@@ -11171,13 +11171,13 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J108" s="2">
         <v>0</v>
@@ -11227,13 +11227,13 @@
     </row>
     <row r="109" spans="1:24" ht="28">
       <c r="A109" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" t="s">
         <v>259</v>
-      </c>
-      <c r="B109" t="s">
-        <v>260</v>
-      </c>
-      <c r="C109" t="s">
-        <v>261</v>
       </c>
       <c r="D109">
         <v>14872</v>
@@ -11245,13 +11245,13 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
@@ -11301,13 +11301,13 @@
     </row>
     <row r="110" spans="1:24">
       <c r="A110" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" t="s">
         <v>259</v>
-      </c>
-      <c r="B110" t="s">
-        <v>260</v>
-      </c>
-      <c r="C110" t="s">
-        <v>261</v>
       </c>
       <c r="D110">
         <v>14872</v>
@@ -11319,13 +11319,13 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
+        <v>260</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="I110" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -11375,13 +11375,13 @@
     </row>
     <row r="111" spans="1:24" ht="56">
       <c r="A111" t="s">
+        <v>257</v>
+      </c>
+      <c r="B111" t="s">
+        <v>258</v>
+      </c>
+      <c r="C111" t="s">
         <v>259</v>
-      </c>
-      <c r="B111" t="s">
-        <v>260</v>
-      </c>
-      <c r="C111" t="s">
-        <v>261</v>
       </c>
       <c r="D111">
         <v>14892</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
@@ -11449,13 +11449,13 @@
     </row>
     <row r="112" spans="1:24" ht="42">
       <c r="A112" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" t="s">
         <v>259</v>
-      </c>
-      <c r="B112" t="s">
-        <v>260</v>
-      </c>
-      <c r="C112" t="s">
-        <v>261</v>
       </c>
       <c r="D112">
         <v>14892</v>
@@ -11467,13 +11467,13 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
@@ -11523,13 +11523,13 @@
     </row>
     <row r="113" spans="1:24" ht="112">
       <c r="A113" t="s">
+        <v>309</v>
+      </c>
+      <c r="B113" t="s">
+        <v>310</v>
+      </c>
+      <c r="C113" t="s">
         <v>311</v>
-      </c>
-      <c r="B113" t="s">
-        <v>312</v>
-      </c>
-      <c r="C113" t="s">
-        <v>313</v>
       </c>
       <c r="D113">
         <v>173</v>
@@ -11541,13 +11541,13 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J113" s="2">
         <v>0</v>
@@ -11597,13 +11597,13 @@
     </row>
     <row r="114" spans="1:24" ht="28">
       <c r="A114" t="s">
+        <v>309</v>
+      </c>
+      <c r="B114" t="s">
+        <v>310</v>
+      </c>
+      <c r="C114" t="s">
         <v>311</v>
-      </c>
-      <c r="B114" t="s">
-        <v>312</v>
-      </c>
-      <c r="C114" t="s">
-        <v>313</v>
       </c>
       <c r="D114">
         <v>173</v>
@@ -11615,13 +11615,13 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
+        <v>312</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="I114" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
@@ -11671,13 +11671,13 @@
     </row>
     <row r="115" spans="1:24" ht="42">
       <c r="A115" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" t="s">
         <v>174</v>
-      </c>
-      <c r="B115" t="s">
-        <v>175</v>
-      </c>
-      <c r="C115" t="s">
-        <v>176</v>
       </c>
       <c r="D115">
         <v>4460</v>
@@ -11689,13 +11689,13 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
@@ -11745,13 +11745,13 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" t="s">
         <v>174</v>
-      </c>
-      <c r="B116" t="s">
-        <v>175</v>
-      </c>
-      <c r="C116" t="s">
-        <v>176</v>
       </c>
       <c r="D116">
         <v>4460</v>
@@ -11763,13 +11763,13 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
+        <v>175</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="I116" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J116" s="2">
         <v>0</v>
@@ -11819,13 +11819,13 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" t="s">
         <v>174</v>
-      </c>
-      <c r="B117" t="s">
-        <v>175</v>
-      </c>
-      <c r="C117" t="s">
-        <v>176</v>
       </c>
       <c r="D117">
         <v>4460</v>
@@ -11837,13 +11837,13 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J117" s="2">
         <v>0</v>
@@ -11893,13 +11893,13 @@
     </row>
     <row r="118" spans="1:24" ht="126">
       <c r="A118" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B118" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D118">
         <v>130</v>
@@ -11911,13 +11911,13 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J118" s="2">
         <v>0</v>
@@ -11967,13 +11967,13 @@
     </row>
     <row r="119" spans="1:24" ht="70">
       <c r="A119" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B119" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D119">
         <v>130</v>
@@ -11985,13 +11985,13 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
+        <v>406</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="I119" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -12041,13 +12041,13 @@
     </row>
     <row r="120" spans="1:24" ht="98">
       <c r="A120" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B120" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D120">
         <v>138</v>
@@ -12059,13 +12059,13 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J120" s="2">
         <v>0</v>
@@ -12115,13 +12115,13 @@
     </row>
     <row r="121" spans="1:24" ht="28">
       <c r="A121" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B121" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D121">
         <v>138</v>
@@ -12133,13 +12133,13 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
+        <v>409</v>
+      </c>
+      <c r="H121" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="I121" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J121" s="2">
         <v>0</v>
@@ -12189,13 +12189,13 @@
     </row>
     <row r="122" spans="1:24" ht="70">
       <c r="A122" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" t="s">
         <v>239</v>
-      </c>
-      <c r="B122" t="s">
-        <v>240</v>
-      </c>
-      <c r="C122" t="s">
-        <v>241</v>
       </c>
       <c r="D122">
         <v>48</v>
@@ -12207,13 +12207,13 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J122" s="2">
         <v>0</v>
@@ -12263,13 +12263,13 @@
     </row>
     <row r="123" spans="1:24" ht="28">
       <c r="A123" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" t="s">
+        <v>238</v>
+      </c>
+      <c r="C123" t="s">
         <v>239</v>
-      </c>
-      <c r="B123" t="s">
-        <v>240</v>
-      </c>
-      <c r="C123" t="s">
-        <v>241</v>
       </c>
       <c r="D123">
         <v>48</v>
@@ -12281,13 +12281,13 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
+        <v>240</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I123" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J123" s="2">
         <v>0</v>
@@ -12337,13 +12337,13 @@
     </row>
     <row r="124" spans="1:24" ht="28">
       <c r="A124" t="s">
+        <v>537</v>
+      </c>
+      <c r="B124" t="s">
+        <v>538</v>
+      </c>
+      <c r="C124" t="s">
         <v>539</v>
-      </c>
-      <c r="B124" t="s">
-        <v>540</v>
-      </c>
-      <c r="C124" t="s">
-        <v>541</v>
       </c>
       <c r="D124">
         <v>2032</v>
@@ -12355,13 +12355,13 @@
         <v>2032</v>
       </c>
       <c r="G124" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J124" s="2">
         <v>0</v>
@@ -12411,13 +12411,13 @@
     </row>
     <row r="125" spans="1:24" ht="28">
       <c r="A125" t="s">
+        <v>502</v>
+      </c>
+      <c r="B125" t="s">
+        <v>503</v>
+      </c>
+      <c r="C125" t="s">
         <v>504</v>
-      </c>
-      <c r="B125" t="s">
-        <v>505</v>
-      </c>
-      <c r="C125" t="s">
-        <v>506</v>
       </c>
       <c r="D125">
         <v>4029</v>
@@ -12429,13 +12429,13 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J125" s="2">
         <v>0</v>
@@ -12485,13 +12485,13 @@
     </row>
     <row r="126" spans="1:24" ht="84">
       <c r="A126" t="s">
+        <v>502</v>
+      </c>
+      <c r="B126" t="s">
+        <v>503</v>
+      </c>
+      <c r="C126" t="s">
         <v>504</v>
-      </c>
-      <c r="B126" t="s">
-        <v>505</v>
-      </c>
-      <c r="C126" t="s">
-        <v>506</v>
       </c>
       <c r="D126">
         <v>4029</v>
@@ -12503,13 +12503,13 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
+        <v>505</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="I126" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J126" s="2">
         <v>0</v>
@@ -12559,13 +12559,13 @@
     </row>
     <row r="127" spans="1:24" ht="98">
       <c r="A127" t="s">
+        <v>502</v>
+      </c>
+      <c r="B127" t="s">
+        <v>503</v>
+      </c>
+      <c r="C127" t="s">
         <v>504</v>
-      </c>
-      <c r="B127" t="s">
-        <v>505</v>
-      </c>
-      <c r="C127" t="s">
-        <v>506</v>
       </c>
       <c r="D127">
         <v>4029</v>
@@ -12577,13 +12577,13 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J127" s="2">
         <v>0</v>
@@ -12633,13 +12633,13 @@
     </row>
     <row r="128" spans="1:24" ht="28">
       <c r="A128" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" t="s">
+        <v>71</v>
+      </c>
+      <c r="C128" t="s">
         <v>72</v>
-      </c>
-      <c r="B128" t="s">
-        <v>73</v>
-      </c>
-      <c r="C128" t="s">
-        <v>74</v>
       </c>
       <c r="D128">
         <v>1190</v>
@@ -12651,13 +12651,13 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J128" s="2">
         <v>0</v>
@@ -12707,13 +12707,13 @@
     </row>
     <row r="129" spans="1:24">
       <c r="A129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" t="s">
         <v>72</v>
-      </c>
-      <c r="B129" t="s">
-        <v>73</v>
-      </c>
-      <c r="C129" t="s">
-        <v>74</v>
       </c>
       <c r="D129">
         <v>1190</v>
@@ -12725,13 +12725,13 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J129" s="2">
         <v>0</v>
@@ -12781,13 +12781,13 @@
     </row>
     <row r="130" spans="1:24" ht="42">
       <c r="A130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" t="s">
         <v>72</v>
-      </c>
-      <c r="B130" t="s">
-        <v>73</v>
-      </c>
-      <c r="C130" t="s">
-        <v>74</v>
       </c>
       <c r="D130">
         <v>1200</v>
@@ -12799,13 +12799,13 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J130" s="2">
         <v>0</v>
@@ -12855,13 +12855,13 @@
     </row>
     <row r="131" spans="1:24">
       <c r="A131" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" t="s">
         <v>72</v>
-      </c>
-      <c r="B131" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" t="s">
-        <v>74</v>
       </c>
       <c r="D131">
         <v>1200</v>
@@ -12873,13 +12873,13 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J131" s="2">
         <v>0</v>
@@ -12929,13 +12929,13 @@
     </row>
     <row r="132" spans="1:24" ht="28">
       <c r="A132" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" t="s">
         <v>72</v>
-      </c>
-      <c r="B132" t="s">
-        <v>73</v>
-      </c>
-      <c r="C132" t="s">
-        <v>74</v>
       </c>
       <c r="D132">
         <v>1220</v>
@@ -12947,13 +12947,13 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J132" s="2">
         <v>0</v>
@@ -13003,13 +13003,13 @@
     </row>
     <row r="133" spans="1:24">
       <c r="A133" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" t="s">
         <v>72</v>
-      </c>
-      <c r="B133" t="s">
-        <v>73</v>
-      </c>
-      <c r="C133" t="s">
-        <v>74</v>
       </c>
       <c r="D133">
         <v>1220</v>
@@ -13021,13 +13021,13 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J133" s="2">
         <v>0</v>
@@ -13077,13 +13077,13 @@
     </row>
     <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B134" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C134" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D134">
         <v>808</v>
@@ -13095,13 +13095,13 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J134" s="2">
         <v>1</v>
@@ -13151,13 +13151,13 @@
     </row>
     <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B135" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C135" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D135">
         <v>808</v>
@@ -13169,13 +13169,13 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J135" s="2">
         <v>0</v>
@@ -13225,13 +13225,13 @@
     </row>
     <row r="136" spans="1:24" ht="98">
       <c r="A136" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" t="s">
         <v>216</v>
-      </c>
-      <c r="B136" t="s">
-        <v>217</v>
-      </c>
-      <c r="C136" t="s">
-        <v>218</v>
       </c>
       <c r="D136">
         <v>331</v>
@@ -13243,13 +13243,13 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J136" s="2">
         <v>0</v>
@@ -13299,13 +13299,13 @@
     </row>
     <row r="137" spans="1:24" ht="28">
       <c r="A137" t="s">
+        <v>214</v>
+      </c>
+      <c r="B137" t="s">
+        <v>215</v>
+      </c>
+      <c r="C137" t="s">
         <v>216</v>
-      </c>
-      <c r="B137" t="s">
-        <v>217</v>
-      </c>
-      <c r="C137" t="s">
-        <v>218</v>
       </c>
       <c r="D137">
         <v>331</v>
@@ -13317,13 +13317,13 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
+        <v>217</v>
+      </c>
+      <c r="H137" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="I137" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J137" s="2">
         <v>0</v>
@@ -13373,13 +13373,13 @@
     </row>
     <row r="138" spans="1:24">
       <c r="A138" t="s">
+        <v>214</v>
+      </c>
+      <c r="B138" t="s">
+        <v>215</v>
+      </c>
+      <c r="C138" t="s">
         <v>216</v>
-      </c>
-      <c r="B138" t="s">
-        <v>217</v>
-      </c>
-      <c r="C138" t="s">
-        <v>218</v>
       </c>
       <c r="D138">
         <v>351</v>
@@ -13391,13 +13391,13 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J138" s="2">
         <v>0</v>
@@ -13447,13 +13447,13 @@
     </row>
     <row r="139" spans="1:24" ht="28">
       <c r="A139" t="s">
+        <v>214</v>
+      </c>
+      <c r="B139" t="s">
+        <v>215</v>
+      </c>
+      <c r="C139" t="s">
         <v>216</v>
-      </c>
-      <c r="B139" t="s">
-        <v>217</v>
-      </c>
-      <c r="C139" t="s">
-        <v>218</v>
       </c>
       <c r="D139">
         <v>351</v>
@@ -13465,13 +13465,13 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
+        <v>220</v>
+      </c>
+      <c r="H139" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="I139" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J139" s="2">
         <v>0</v>
@@ -13521,13 +13521,13 @@
     </row>
     <row r="140" spans="1:24" ht="140">
       <c r="A140" t="s">
+        <v>214</v>
+      </c>
+      <c r="B140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C140" t="s">
         <v>216</v>
-      </c>
-      <c r="B140" t="s">
-        <v>217</v>
-      </c>
-      <c r="C140" t="s">
-        <v>218</v>
       </c>
       <c r="D140">
         <v>351</v>
@@ -13539,13 +13539,13 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J140" s="2">
         <v>0</v>
@@ -13595,13 +13595,13 @@
     </row>
     <row r="141" spans="1:24">
       <c r="A141" t="s">
+        <v>114</v>
+      </c>
+      <c r="B141" t="s">
+        <v>132</v>
+      </c>
+      <c r="C141" t="s">
         <v>116</v>
-      </c>
-      <c r="B141" t="s">
-        <v>134</v>
-      </c>
-      <c r="C141" t="s">
-        <v>118</v>
       </c>
       <c r="D141">
         <v>534</v>
@@ -13613,13 +13613,13 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J141" s="2">
         <v>0</v>
@@ -13669,13 +13669,13 @@
     </row>
     <row r="142" spans="1:24" ht="84">
       <c r="A142" t="s">
+        <v>429</v>
+      </c>
+      <c r="B142" t="s">
+        <v>430</v>
+      </c>
+      <c r="C142" t="s">
         <v>431</v>
-      </c>
-      <c r="B142" t="s">
-        <v>432</v>
-      </c>
-      <c r="C142" t="s">
-        <v>433</v>
       </c>
       <c r="D142">
         <v>427</v>
@@ -13687,13 +13687,13 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J142" s="2">
         <v>0</v>
@@ -13743,13 +13743,13 @@
     </row>
     <row r="143" spans="1:24">
       <c r="A143" t="s">
+        <v>429</v>
+      </c>
+      <c r="B143" t="s">
+        <v>430</v>
+      </c>
+      <c r="C143" t="s">
         <v>431</v>
-      </c>
-      <c r="B143" t="s">
-        <v>432</v>
-      </c>
-      <c r="C143" t="s">
-        <v>433</v>
       </c>
       <c r="D143">
         <v>427</v>
@@ -13761,13 +13761,13 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
+        <v>432</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="I143" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J143" s="2">
         <v>0</v>
@@ -13817,13 +13817,13 @@
     </row>
     <row r="144" spans="1:24" ht="70">
       <c r="A144" t="s">
+        <v>429</v>
+      </c>
+      <c r="B144" t="s">
+        <v>430</v>
+      </c>
+      <c r="C144" t="s">
         <v>431</v>
-      </c>
-      <c r="B144" t="s">
-        <v>432</v>
-      </c>
-      <c r="C144" t="s">
-        <v>433</v>
       </c>
       <c r="D144">
         <v>427</v>
@@ -13835,13 +13835,13 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J144" s="2">
         <v>0</v>
@@ -13891,13 +13891,13 @@
     </row>
     <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B145" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C145" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D145">
         <v>2610</v>
@@ -13909,13 +13909,13 @@
         <v>2610</v>
       </c>
       <c r="G145" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J145" s="2">
         <v>0</v>
@@ -13965,13 +13965,13 @@
     </row>
     <row r="146" spans="1:24" ht="42">
       <c r="A146" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" t="s">
         <v>137</v>
-      </c>
-      <c r="B146" t="s">
-        <v>138</v>
-      </c>
-      <c r="C146" t="s">
-        <v>139</v>
       </c>
       <c r="D146">
         <v>3122</v>
@@ -13983,13 +13983,13 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J146" s="2">
         <v>0</v>
@@ -14039,13 +14039,13 @@
     </row>
     <row r="147" spans="1:24" ht="28">
       <c r="A147" t="s">
+        <v>135</v>
+      </c>
+      <c r="B147" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" t="s">
         <v>137</v>
-      </c>
-      <c r="B147" t="s">
-        <v>138</v>
-      </c>
-      <c r="C147" t="s">
-        <v>139</v>
       </c>
       <c r="D147">
         <v>3122</v>
@@ -14057,13 +14057,13 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
+        <v>138</v>
+      </c>
+      <c r="H147" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I147" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J147" s="2">
         <v>0</v>
@@ -14113,13 +14113,13 @@
     </row>
     <row r="148" spans="1:24" ht="140">
       <c r="A148" t="s">
+        <v>509</v>
+      </c>
+      <c r="B148" t="s">
+        <v>510</v>
+      </c>
+      <c r="C148" t="s">
         <v>511</v>
-      </c>
-      <c r="B148" t="s">
-        <v>512</v>
-      </c>
-      <c r="C148" t="s">
-        <v>513</v>
       </c>
       <c r="D148">
         <v>289</v>
@@ -14131,13 +14131,13 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J148" s="2">
         <v>0</v>
@@ -14187,13 +14187,13 @@
     </row>
     <row r="149" spans="1:24" ht="56">
       <c r="A149" t="s">
+        <v>509</v>
+      </c>
+      <c r="B149" t="s">
+        <v>510</v>
+      </c>
+      <c r="C149" t="s">
         <v>511</v>
-      </c>
-      <c r="B149" t="s">
-        <v>512</v>
-      </c>
-      <c r="C149" t="s">
-        <v>513</v>
       </c>
       <c r="D149">
         <v>289</v>
@@ -14205,13 +14205,13 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
+        <v>512</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="I149" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J149" s="2">
         <v>0</v>
@@ -14261,13 +14261,13 @@
     </row>
     <row r="150" spans="1:24" ht="98">
       <c r="A150" t="s">
+        <v>509</v>
+      </c>
+      <c r="B150" t="s">
+        <v>510</v>
+      </c>
+      <c r="C150" t="s">
         <v>511</v>
-      </c>
-      <c r="B150" t="s">
-        <v>512</v>
-      </c>
-      <c r="C150" t="s">
-        <v>513</v>
       </c>
       <c r="D150">
         <v>289</v>
@@ -14279,13 +14279,13 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J150" s="2">
         <v>0</v>
@@ -14335,13 +14335,13 @@
     </row>
     <row r="151" spans="1:24" ht="238">
       <c r="A151" t="s">
+        <v>509</v>
+      </c>
+      <c r="B151" t="s">
+        <v>510</v>
+      </c>
+      <c r="C151" t="s">
         <v>511</v>
-      </c>
-      <c r="B151" t="s">
-        <v>512</v>
-      </c>
-      <c r="C151" t="s">
-        <v>513</v>
       </c>
       <c r="D151">
         <v>289</v>
@@ -14353,13 +14353,13 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J151" s="2">
         <v>1</v>
@@ -14409,13 +14409,13 @@
     </row>
     <row r="152" spans="1:24" ht="42">
       <c r="A152" t="s">
+        <v>509</v>
+      </c>
+      <c r="B152" t="s">
+        <v>510</v>
+      </c>
+      <c r="C152" t="s">
         <v>511</v>
-      </c>
-      <c r="B152" t="s">
-        <v>512</v>
-      </c>
-      <c r="C152" t="s">
-        <v>513</v>
       </c>
       <c r="D152">
         <v>289</v>
@@ -14427,13 +14427,13 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J152" s="2">
         <v>0</v>
@@ -14483,13 +14483,13 @@
     </row>
     <row r="153" spans="1:24" ht="28">
       <c r="A153" t="s">
+        <v>509</v>
+      </c>
+      <c r="B153" t="s">
+        <v>510</v>
+      </c>
+      <c r="C153" t="s">
         <v>511</v>
-      </c>
-      <c r="B153" t="s">
-        <v>512</v>
-      </c>
-      <c r="C153" t="s">
-        <v>513</v>
       </c>
       <c r="D153">
         <v>289</v>
@@ -14501,13 +14501,13 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J153" s="2">
         <v>0</v>
@@ -14557,13 +14557,13 @@
     </row>
     <row r="154" spans="1:24" ht="84">
       <c r="A154" t="s">
+        <v>509</v>
+      </c>
+      <c r="B154" t="s">
+        <v>510</v>
+      </c>
+      <c r="C154" t="s">
         <v>511</v>
-      </c>
-      <c r="B154" t="s">
-        <v>512</v>
-      </c>
-      <c r="C154" t="s">
-        <v>513</v>
       </c>
       <c r="D154">
         <v>289</v>
@@ -14575,13 +14575,13 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J154" s="2">
         <v>0</v>
@@ -14631,13 +14631,13 @@
     </row>
     <row r="155" spans="1:24" ht="98">
       <c r="A155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B155" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D155">
         <v>392</v>
@@ -14649,13 +14649,13 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J155" s="2">
         <v>0</v>
@@ -14705,13 +14705,13 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156" t="s">
+        <v>551</v>
+      </c>
+      <c r="B156" t="s">
+        <v>552</v>
+      </c>
+      <c r="C156" t="s">
         <v>553</v>
-      </c>
-      <c r="B156" t="s">
-        <v>554</v>
-      </c>
-      <c r="C156" t="s">
-        <v>555</v>
       </c>
       <c r="D156">
         <v>882</v>
@@ -14723,13 +14723,13 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J156" s="2">
         <v>0</v>
@@ -14779,13 +14779,13 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157" t="s">
+        <v>551</v>
+      </c>
+      <c r="B157" t="s">
+        <v>552</v>
+      </c>
+      <c r="C157" t="s">
         <v>553</v>
-      </c>
-      <c r="B157" t="s">
-        <v>554</v>
-      </c>
-      <c r="C157" t="s">
-        <v>555</v>
       </c>
       <c r="D157">
         <v>882</v>
@@ -14797,13 +14797,13 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
+        <v>554</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H157" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="I157" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J157" s="2">
         <v>0</v>
@@ -14853,13 +14853,13 @@
     </row>
     <row r="158" spans="1:24" ht="154">
       <c r="A158" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B158" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D158">
         <v>1384</v>
@@ -14871,13 +14871,13 @@
         <v>1384</v>
       </c>
       <c r="G158" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J158" s="2">
         <v>0</v>
@@ -14927,13 +14927,13 @@
     </row>
     <row r="159" spans="1:24" ht="154">
       <c r="A159" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D159">
         <v>1384</v>
@@ -14945,13 +14945,13 @@
         <v>1384</v>
       </c>
       <c r="G159" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J159" s="2">
         <v>0</v>
@@ -15001,13 +15001,13 @@
     </row>
     <row r="160" spans="1:24" ht="56">
       <c r="A160" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B160" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D160">
         <v>1844</v>
@@ -15019,13 +15019,13 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J160" s="2">
         <v>0</v>
@@ -15075,13 +15075,13 @@
     </row>
     <row r="161" spans="1:24" ht="56">
       <c r="A161" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B161" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C161" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D161">
         <v>55</v>
@@ -15093,13 +15093,13 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J161" s="2">
         <v>0</v>
@@ -15149,13 +15149,13 @@
     </row>
     <row r="162" spans="1:24" ht="28">
       <c r="A162" t="s">
+        <v>231</v>
+      </c>
+      <c r="B162" t="s">
+        <v>232</v>
+      </c>
+      <c r="C162" t="s">
         <v>233</v>
-      </c>
-      <c r="B162" t="s">
-        <v>234</v>
-      </c>
-      <c r="C162" t="s">
-        <v>235</v>
       </c>
       <c r="D162">
         <v>72</v>
@@ -15167,13 +15167,13 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J162" s="2">
         <v>0</v>
@@ -15223,13 +15223,13 @@
     </row>
     <row r="163" spans="1:24" ht="56">
       <c r="A163" t="s">
+        <v>231</v>
+      </c>
+      <c r="B163" t="s">
+        <v>232</v>
+      </c>
+      <c r="C163" t="s">
         <v>233</v>
-      </c>
-      <c r="B163" t="s">
-        <v>234</v>
-      </c>
-      <c r="C163" t="s">
-        <v>235</v>
       </c>
       <c r="D163">
         <v>72</v>
@@ -15241,13 +15241,13 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
+        <v>234</v>
+      </c>
+      <c r="H163" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I163" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J163" s="2">
         <v>0</v>
@@ -15297,13 +15297,13 @@
     </row>
     <row r="164" spans="1:24" ht="70">
       <c r="A164" t="s">
+        <v>156</v>
+      </c>
+      <c r="B164" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" t="s">
         <v>158</v>
-      </c>
-      <c r="B164" t="s">
-        <v>159</v>
-      </c>
-      <c r="C164" t="s">
-        <v>160</v>
       </c>
       <c r="D164">
         <v>706</v>
@@ -15315,13 +15315,13 @@
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J164" s="2">
         <v>0</v>
@@ -15371,13 +15371,13 @@
     </row>
     <row r="165" spans="1:24" ht="70">
       <c r="A165" t="s">
+        <v>418</v>
+      </c>
+      <c r="B165" t="s">
+        <v>419</v>
+      </c>
+      <c r="C165" t="s">
         <v>420</v>
-      </c>
-      <c r="B165" t="s">
-        <v>421</v>
-      </c>
-      <c r="C165" t="s">
-        <v>422</v>
       </c>
       <c r="D165">
         <v>369</v>
@@ -15389,13 +15389,13 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J165" s="2">
         <v>0</v>
@@ -15445,13 +15445,13 @@
     </row>
     <row r="166" spans="1:24">
       <c r="A166" t="s">
+        <v>418</v>
+      </c>
+      <c r="B166" t="s">
+        <v>419</v>
+      </c>
+      <c r="C166" t="s">
         <v>420</v>
-      </c>
-      <c r="B166" t="s">
-        <v>421</v>
-      </c>
-      <c r="C166" t="s">
-        <v>422</v>
       </c>
       <c r="D166">
         <v>369</v>
@@ -15463,13 +15463,13 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J166" s="2">
         <v>0</v>
@@ -15519,13 +15519,13 @@
     </row>
     <row r="167" spans="1:24" ht="28">
       <c r="A167" t="s">
+        <v>469</v>
+      </c>
+      <c r="B167" t="s">
+        <v>470</v>
+      </c>
+      <c r="C167" t="s">
         <v>471</v>
-      </c>
-      <c r="B167" t="s">
-        <v>472</v>
-      </c>
-      <c r="C167" t="s">
-        <v>473</v>
       </c>
       <c r="D167">
         <v>16</v>
@@ -15537,13 +15537,13 @@
         <v>16</v>
       </c>
       <c r="G167" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J167" s="2">
         <v>0</v>
@@ -15593,13 +15593,13 @@
     </row>
     <row r="168" spans="1:24" ht="28">
       <c r="A168" t="s">
+        <v>469</v>
+      </c>
+      <c r="B168" t="s">
+        <v>470</v>
+      </c>
+      <c r="C168" t="s">
         <v>471</v>
-      </c>
-      <c r="B168" t="s">
-        <v>472</v>
-      </c>
-      <c r="C168" t="s">
-        <v>473</v>
       </c>
       <c r="D168">
         <v>16</v>
@@ -15611,13 +15611,13 @@
         <v>16</v>
       </c>
       <c r="G168" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J168" s="2">
         <v>0</v>
@@ -15667,13 +15667,13 @@
     </row>
     <row r="169" spans="1:24">
       <c r="A169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" t="s">
         <v>88</v>
-      </c>
-      <c r="B169" t="s">
-        <v>89</v>
-      </c>
-      <c r="C169" t="s">
-        <v>90</v>
       </c>
       <c r="D169">
         <v>3206</v>
@@ -15685,13 +15685,13 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J169" s="2">
         <v>0</v>
@@ -15741,13 +15741,13 @@
     </row>
     <row r="170" spans="1:24" ht="42">
       <c r="A170" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B170" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C170" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D170">
         <v>5247</v>
@@ -15759,13 +15759,13 @@
         <v>5247</v>
       </c>
       <c r="G170" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J170" s="2">
         <v>0</v>
@@ -15815,13 +15815,13 @@
     </row>
     <row r="171" spans="1:24" ht="42">
       <c r="A171" t="s">
+        <v>394</v>
+      </c>
+      <c r="B171" t="s">
+        <v>395</v>
+      </c>
+      <c r="C171" t="s">
         <v>396</v>
-      </c>
-      <c r="B171" t="s">
-        <v>397</v>
-      </c>
-      <c r="C171" t="s">
-        <v>398</v>
       </c>
       <c r="D171">
         <v>654</v>
@@ -15833,13 +15833,13 @@
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J171" s="2">
         <v>0</v>
@@ -15889,13 +15889,13 @@
     </row>
     <row r="172" spans="1:24" ht="56">
       <c r="A172" t="s">
+        <v>394</v>
+      </c>
+      <c r="B172" t="s">
+        <v>395</v>
+      </c>
+      <c r="C172" t="s">
         <v>396</v>
-      </c>
-      <c r="B172" t="s">
-        <v>397</v>
-      </c>
-      <c r="C172" t="s">
-        <v>398</v>
       </c>
       <c r="D172">
         <v>654</v>
@@ -15907,13 +15907,13 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
+        <v>397</v>
+      </c>
+      <c r="H172" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="I172" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J172" s="2">
         <v>0</v>
@@ -15963,13 +15963,13 @@
     </row>
     <row r="173" spans="1:24" ht="28">
       <c r="A173" t="s">
+        <v>224</v>
+      </c>
+      <c r="B173" t="s">
+        <v>225</v>
+      </c>
+      <c r="C173" t="s">
         <v>226</v>
-      </c>
-      <c r="B173" t="s">
-        <v>227</v>
-      </c>
-      <c r="C173" t="s">
-        <v>228</v>
       </c>
       <c r="D173">
         <v>47</v>
@@ -15981,13 +15981,13 @@
         <v>47</v>
       </c>
       <c r="G173" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J173" s="2">
         <v>0</v>
@@ -16037,13 +16037,13 @@
     </row>
     <row r="174" spans="1:24">
       <c r="A174" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" t="s">
+        <v>225</v>
+      </c>
+      <c r="C174" t="s">
         <v>226</v>
-      </c>
-      <c r="B174" t="s">
-        <v>227</v>
-      </c>
-      <c r="C174" t="s">
-        <v>228</v>
       </c>
       <c r="D174">
         <v>53</v>
@@ -16055,13 +16055,13 @@
         <v>53</v>
       </c>
       <c r="G174" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J174" s="2">
         <v>0</v>
@@ -16111,13 +16111,13 @@
     </row>
     <row r="175" spans="1:24">
       <c r="A175" t="s">
+        <v>224</v>
+      </c>
+      <c r="B175" t="s">
+        <v>225</v>
+      </c>
+      <c r="C175" t="s">
         <v>226</v>
-      </c>
-      <c r="B175" t="s">
-        <v>227</v>
-      </c>
-      <c r="C175" t="s">
-        <v>228</v>
       </c>
       <c r="D175">
         <v>59</v>
@@ -16129,13 +16129,13 @@
         <v>59</v>
       </c>
       <c r="G175" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J175" s="2">
         <v>0</v>
@@ -16185,13 +16185,13 @@
     </row>
     <row r="176" spans="1:24">
       <c r="A176" t="s">
+        <v>531</v>
+      </c>
+      <c r="B176" t="s">
+        <v>532</v>
+      </c>
+      <c r="C176" t="s">
         <v>533</v>
-      </c>
-      <c r="B176" t="s">
-        <v>534</v>
-      </c>
-      <c r="C176" t="s">
-        <v>535</v>
       </c>
       <c r="D176">
         <v>350</v>
@@ -16203,13 +16203,13 @@
         <v>350</v>
       </c>
       <c r="G176" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J176" s="2">
         <v>0</v>
@@ -16259,13 +16259,13 @@
     </row>
     <row r="177" spans="1:24">
       <c r="A177" t="s">
+        <v>531</v>
+      </c>
+      <c r="B177" t="s">
+        <v>532</v>
+      </c>
+      <c r="C177" t="s">
         <v>533</v>
-      </c>
-      <c r="B177" t="s">
-        <v>534</v>
-      </c>
-      <c r="C177" t="s">
-        <v>535</v>
       </c>
       <c r="D177">
         <v>350</v>
@@ -16277,13 +16277,13 @@
         <v>350</v>
       </c>
       <c r="G177" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J177" s="2">
         <v>0</v>
@@ -16333,13 +16333,13 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D178">
         <v>13</v>
@@ -16351,13 +16351,13 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J178" s="2">
         <v>0</v>
@@ -16407,13 +16407,13 @@
     </row>
     <row r="179" spans="1:24" ht="28">
       <c r="A179" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B179" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D179">
         <v>67</v>
@@ -16425,13 +16425,13 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J179" s="2">
         <v>0</v>
@@ -16481,13 +16481,13 @@
     </row>
     <row r="180" spans="1:24" ht="28">
       <c r="A180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B180" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D180">
         <v>1886</v>
@@ -16499,13 +16499,13 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J180" s="2">
         <v>0</v>
@@ -16555,13 +16555,13 @@
     </row>
     <row r="181" spans="1:24" ht="56">
       <c r="A181" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B181" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D181">
         <v>1924</v>
@@ -16573,13 +16573,13 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J181" s="2">
         <v>0</v>
@@ -16629,13 +16629,13 @@
     </row>
     <row r="182" spans="1:24" ht="42">
       <c r="A182" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B182" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D182">
         <v>1924</v>
@@ -16647,13 +16647,13 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
+        <v>336</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="I182" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J182" s="2">
         <v>0</v>
@@ -16703,13 +16703,13 @@
     </row>
     <row r="183" spans="1:24" ht="42">
       <c r="A183" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B183" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D183">
         <v>306</v>
@@ -16721,13 +16721,13 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J183" s="2">
         <v>0</v>
@@ -16777,13 +16777,13 @@
     </row>
     <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B184" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D184">
         <v>306</v>
@@ -16795,13 +16795,13 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
+        <v>350</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="I184" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J184" s="2">
         <v>0</v>
@@ -16851,13 +16851,13 @@
     </row>
     <row r="185" spans="1:24" ht="42">
       <c r="A185" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B185" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D185">
         <v>306</v>
@@ -16869,13 +16869,13 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J185" s="2">
         <v>0</v>
@@ -16925,13 +16925,13 @@
     </row>
     <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B186" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C186" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D186">
         <v>134</v>
@@ -16943,13 +16943,13 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J186" s="2">
         <v>0</v>
@@ -16999,13 +16999,13 @@
     </row>
     <row r="187" spans="1:24" ht="28">
       <c r="A187" t="s">
+        <v>525</v>
+      </c>
+      <c r="B187" t="s">
+        <v>526</v>
+      </c>
+      <c r="C187" t="s">
         <v>527</v>
-      </c>
-      <c r="B187" t="s">
-        <v>528</v>
-      </c>
-      <c r="C187" t="s">
-        <v>529</v>
       </c>
       <c r="D187">
         <v>102</v>
@@ -17017,13 +17017,13 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J187" s="2">
         <v>0</v>
@@ -17073,13 +17073,13 @@
     </row>
     <row r="188" spans="1:24" ht="98">
       <c r="A188" t="s">
+        <v>525</v>
+      </c>
+      <c r="B188" t="s">
+        <v>526</v>
+      </c>
+      <c r="C188" t="s">
         <v>527</v>
-      </c>
-      <c r="B188" t="s">
-        <v>528</v>
-      </c>
-      <c r="C188" t="s">
-        <v>529</v>
       </c>
       <c r="D188">
         <v>102</v>
@@ -17091,13 +17091,13 @@
         <v>0</v>
       </c>
       <c r="G188" t="s">
+        <v>528</v>
+      </c>
+      <c r="H188" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="I188" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J188" s="2">
         <v>0</v>
@@ -17147,13 +17147,13 @@
     </row>
     <row r="189" spans="1:24" ht="28">
       <c r="A189" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B189" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D189">
         <v>3513</v>
@@ -17165,13 +17165,13 @@
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J189" s="2">
         <v>0</v>
@@ -17221,13 +17221,13 @@
     </row>
     <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B190" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D190">
         <v>3513</v>
@@ -17239,13 +17239,13 @@
         <v>0</v>
       </c>
       <c r="G190" t="s">
+        <v>320</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="I190" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J190" s="2">
         <v>0</v>
@@ -17295,13 +17295,13 @@
     </row>
     <row r="191" spans="1:24" ht="98">
       <c r="A191" t="s">
+        <v>444</v>
+      </c>
+      <c r="B191" t="s">
+        <v>445</v>
+      </c>
+      <c r="C191" t="s">
         <v>446</v>
-      </c>
-      <c r="B191" t="s">
-        <v>447</v>
-      </c>
-      <c r="C191" t="s">
-        <v>448</v>
       </c>
       <c r="D191">
         <v>53</v>
@@ -17313,13 +17313,13 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J191" s="2">
         <v>0</v>
@@ -17369,13 +17369,13 @@
     </row>
     <row r="192" spans="1:24" ht="70">
       <c r="A192" t="s">
+        <v>444</v>
+      </c>
+      <c r="B192" t="s">
+        <v>445</v>
+      </c>
+      <c r="C192" t="s">
         <v>446</v>
-      </c>
-      <c r="B192" t="s">
-        <v>447</v>
-      </c>
-      <c r="C192" t="s">
-        <v>448</v>
       </c>
       <c r="D192">
         <v>53</v>
@@ -17387,13 +17387,13 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
+        <v>447</v>
+      </c>
+      <c r="H192" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="I192" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J192" s="2">
         <v>0</v>
@@ -17443,13 +17443,13 @@
     </row>
     <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B193" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C193" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D193">
         <v>1073</v>
@@ -17461,13 +17461,13 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J193" s="2">
         <v>0</v>
@@ -17517,13 +17517,13 @@
     </row>
     <row r="194" spans="1:24" ht="28">
       <c r="A194" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B194" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C194" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D194">
         <v>1101</v>
@@ -17535,13 +17535,13 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J194" s="2">
         <v>0</v>
@@ -17591,13 +17591,13 @@
     </row>
     <row r="195" spans="1:24">
       <c r="A195" t="s">
+        <v>542</v>
+      </c>
+      <c r="B195" t="s">
+        <v>543</v>
+      </c>
+      <c r="C195" t="s">
         <v>544</v>
-      </c>
-      <c r="B195" t="s">
-        <v>545</v>
-      </c>
-      <c r="C195" t="s">
-        <v>546</v>
       </c>
       <c r="D195">
         <v>3158</v>
@@ -17609,13 +17609,13 @@
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J195" s="2">
         <v>0</v>
@@ -17665,13 +17665,13 @@
     </row>
     <row r="196" spans="1:24" ht="56">
       <c r="A196" t="s">
+        <v>542</v>
+      </c>
+      <c r="B196" t="s">
+        <v>543</v>
+      </c>
+      <c r="C196" t="s">
         <v>544</v>
-      </c>
-      <c r="B196" t="s">
-        <v>545</v>
-      </c>
-      <c r="C196" t="s">
-        <v>546</v>
       </c>
       <c r="D196">
         <v>3158</v>
@@ -17683,13 +17683,13 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
+        <v>545</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="H196" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="I196" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J196" s="2">
         <v>0</v>
@@ -17739,13 +17739,13 @@
     </row>
     <row r="197" spans="1:24">
       <c r="A197" t="s">
+        <v>542</v>
+      </c>
+      <c r="B197" t="s">
+        <v>543</v>
+      </c>
+      <c r="C197" t="s">
         <v>544</v>
-      </c>
-      <c r="B197" t="s">
-        <v>545</v>
-      </c>
-      <c r="C197" t="s">
-        <v>546</v>
       </c>
       <c r="D197">
         <v>3158</v>
@@ -17757,13 +17757,13 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J197" s="2">
         <v>0</v>
@@ -17813,13 +17813,13 @@
     </row>
     <row r="198" spans="1:24">
       <c r="A198" t="s">
+        <v>542</v>
+      </c>
+      <c r="B198" t="s">
+        <v>543</v>
+      </c>
+      <c r="C198" t="s">
         <v>544</v>
-      </c>
-      <c r="B198" t="s">
-        <v>545</v>
-      </c>
-      <c r="C198" t="s">
-        <v>546</v>
       </c>
       <c r="D198">
         <v>3158</v>
@@ -17831,13 +17831,13 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J198" s="2">
         <v>0</v>
@@ -17887,13 +17887,13 @@
     </row>
     <row r="199" spans="1:24">
       <c r="A199" t="s">
+        <v>542</v>
+      </c>
+      <c r="B199" t="s">
+        <v>543</v>
+      </c>
+      <c r="C199" t="s">
         <v>544</v>
-      </c>
-      <c r="B199" t="s">
-        <v>545</v>
-      </c>
-      <c r="C199" t="s">
-        <v>546</v>
       </c>
       <c r="D199">
         <v>3158</v>
@@ -17905,13 +17905,13 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J199" s="2">
         <v>0</v>
@@ -17961,13 +17961,13 @@
     </row>
     <row r="200" spans="1:24" ht="98">
       <c r="A200" t="s">
+        <v>542</v>
+      </c>
+      <c r="B200" t="s">
+        <v>543</v>
+      </c>
+      <c r="C200" t="s">
         <v>544</v>
-      </c>
-      <c r="B200" t="s">
-        <v>545</v>
-      </c>
-      <c r="C200" t="s">
-        <v>546</v>
       </c>
       <c r="D200">
         <v>3158</v>
@@ -17979,13 +17979,13 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J200" s="2">
         <v>0</v>
@@ -18035,13 +18035,13 @@
     </row>
     <row r="201" spans="1:24">
       <c r="A201" t="s">
+        <v>557</v>
+      </c>
+      <c r="B201" t="s">
+        <v>558</v>
+      </c>
+      <c r="C201" t="s">
         <v>559</v>
-      </c>
-      <c r="B201" t="s">
-        <v>560</v>
-      </c>
-      <c r="C201" t="s">
-        <v>561</v>
       </c>
       <c r="D201">
         <v>133</v>
@@ -18053,13 +18053,13 @@
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J201" s="2">
         <v>0</v>
@@ -18109,13 +18109,13 @@
     </row>
     <row r="202" spans="1:24" ht="28">
       <c r="A202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D202">
         <v>530</v>
@@ -18127,13 +18127,13 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J202" s="2">
         <v>0</v>
@@ -18183,13 +18183,13 @@
     </row>
     <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D203">
         <v>530</v>
@@ -18201,13 +18201,13 @@
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J203" s="2">
         <v>0</v>
@@ -18257,13 +18257,13 @@
     </row>
     <row r="204" spans="1:24" ht="56">
       <c r="A204" t="s">
+        <v>70</v>
+      </c>
+      <c r="B204" t="s">
+        <v>82</v>
+      </c>
+      <c r="C204" t="s">
         <v>72</v>
-      </c>
-      <c r="B204" t="s">
-        <v>84</v>
-      </c>
-      <c r="C204" t="s">
-        <v>74</v>
       </c>
       <c r="D204">
         <v>1221</v>
@@ -18275,13 +18275,13 @@
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J204" s="2">
         <v>0</v>
@@ -18331,13 +18331,13 @@
     </row>
     <row r="205" spans="1:24" ht="266">
       <c r="A205" t="s">
+        <v>70</v>
+      </c>
+      <c r="B205" t="s">
+        <v>82</v>
+      </c>
+      <c r="C205" t="s">
         <v>72</v>
-      </c>
-      <c r="B205" t="s">
-        <v>84</v>
-      </c>
-      <c r="C205" t="s">
-        <v>74</v>
       </c>
       <c r="D205">
         <v>1221</v>
@@ -18349,13 +18349,13 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
+        <v>83</v>
+      </c>
+      <c r="H205" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="I205" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J205" s="2">
         <v>0</v>
@@ -18405,13 +18405,13 @@
     </row>
     <row r="206" spans="1:24" ht="42">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D206">
         <v>209</v>
@@ -18423,13 +18423,13 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J206" s="2">
         <v>0</v>
@@ -18479,13 +18479,13 @@
     </row>
     <row r="207" spans="1:24" ht="42">
       <c r="A207" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D207">
         <v>209</v>
@@ -18497,13 +18497,13 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J207" s="2">
         <v>0</v>
@@ -18553,13 +18553,13 @@
     </row>
     <row r="208" spans="1:24" ht="42">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D208">
         <v>209</v>
@@ -18571,13 +18571,13 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J208" s="2">
         <v>0</v>
@@ -18627,13 +18627,13 @@
     </row>
     <row r="209" spans="1:24" ht="224">
       <c r="A209" t="s">
+        <v>150</v>
+      </c>
+      <c r="B209" t="s">
+        <v>151</v>
+      </c>
+      <c r="C209" t="s">
         <v>152</v>
-      </c>
-      <c r="B209" t="s">
-        <v>153</v>
-      </c>
-      <c r="C209" t="s">
-        <v>154</v>
       </c>
       <c r="D209">
         <v>166</v>
@@ -18645,13 +18645,13 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J209" s="2">
         <v>0</v>
@@ -18701,13 +18701,13 @@
     </row>
     <row r="210" spans="1:24" ht="28">
       <c r="A210" t="s">
+        <v>150</v>
+      </c>
+      <c r="B210" t="s">
+        <v>151</v>
+      </c>
+      <c r="C210" t="s">
         <v>152</v>
-      </c>
-      <c r="B210" t="s">
-        <v>153</v>
-      </c>
-      <c r="C210" t="s">
-        <v>154</v>
       </c>
       <c r="D210">
         <v>166</v>
@@ -18719,13 +18719,13 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
+        <v>153</v>
+      </c>
+      <c r="H210" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="I210" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J210" s="2">
         <v>0</v>
@@ -18775,13 +18775,13 @@
     </row>
     <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B211" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D211">
         <v>128</v>
@@ -18793,13 +18793,13 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J211" s="2">
         <v>0</v>
@@ -18849,13 +18849,13 @@
     </row>
     <row r="212" spans="1:24">
       <c r="A212" t="s">
+        <v>354</v>
+      </c>
+      <c r="B212" t="s">
+        <v>359</v>
+      </c>
+      <c r="C212" t="s">
         <v>356</v>
-      </c>
-      <c r="B212" t="s">
-        <v>361</v>
-      </c>
-      <c r="C212" t="s">
-        <v>358</v>
       </c>
       <c r="D212">
         <v>964</v>
@@ -18867,13 +18867,13 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J212" s="2">
         <v>0</v>
@@ -18923,13 +18923,13 @@
     </row>
     <row r="213" spans="1:24">
       <c r="A213" t="s">
+        <v>354</v>
+      </c>
+      <c r="B213" t="s">
+        <v>359</v>
+      </c>
+      <c r="C213" t="s">
         <v>356</v>
-      </c>
-      <c r="B213" t="s">
-        <v>361</v>
-      </c>
-      <c r="C213" t="s">
-        <v>358</v>
       </c>
       <c r="D213">
         <v>1559</v>
@@ -18941,13 +18941,13 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J213" s="2">
         <v>0</v>
@@ -18997,13 +18997,13 @@
     </row>
     <row r="214" spans="1:24">
       <c r="A214" t="s">
+        <v>354</v>
+      </c>
+      <c r="B214" t="s">
+        <v>359</v>
+      </c>
+      <c r="C214" t="s">
         <v>356</v>
-      </c>
-      <c r="B214" t="s">
-        <v>361</v>
-      </c>
-      <c r="C214" t="s">
-        <v>358</v>
       </c>
       <c r="D214">
         <v>1559</v>
@@ -19015,13 +19015,13 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J214" s="2">
         <v>0</v>
@@ -19071,13 +19071,13 @@
     </row>
     <row r="215" spans="1:24">
       <c r="A215" t="s">
+        <v>354</v>
+      </c>
+      <c r="B215" t="s">
+        <v>359</v>
+      </c>
+      <c r="C215" t="s">
         <v>356</v>
-      </c>
-      <c r="B215" t="s">
-        <v>361</v>
-      </c>
-      <c r="C215" t="s">
-        <v>358</v>
       </c>
       <c r="D215">
         <v>1736</v>
@@ -19089,13 +19089,13 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J215" s="2">
         <v>0</v>
@@ -19145,13 +19145,13 @@
     </row>
     <row r="216" spans="1:24">
       <c r="A216" t="s">
+        <v>354</v>
+      </c>
+      <c r="B216" t="s">
+        <v>359</v>
+      </c>
+      <c r="C216" t="s">
         <v>356</v>
-      </c>
-      <c r="B216" t="s">
-        <v>361</v>
-      </c>
-      <c r="C216" t="s">
-        <v>358</v>
       </c>
       <c r="D216">
         <v>3880</v>
@@ -19163,13 +19163,13 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J216" s="2">
         <v>0</v>
@@ -19219,13 +19219,13 @@
     </row>
     <row r="217" spans="1:24">
       <c r="A217" t="s">
+        <v>354</v>
+      </c>
+      <c r="B217" t="s">
+        <v>359</v>
+      </c>
+      <c r="C217" t="s">
         <v>356</v>
-      </c>
-      <c r="B217" t="s">
-        <v>361</v>
-      </c>
-      <c r="C217" t="s">
-        <v>358</v>
       </c>
       <c r="D217">
         <v>3880</v>
@@ -19237,13 +19237,13 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J217" s="2">
         <v>0</v>
@@ -19293,13 +19293,13 @@
     </row>
     <row r="218" spans="1:24">
       <c r="A218" t="s">
+        <v>354</v>
+      </c>
+      <c r="B218" t="s">
+        <v>359</v>
+      </c>
+      <c r="C218" t="s">
         <v>356</v>
-      </c>
-      <c r="B218" t="s">
-        <v>361</v>
-      </c>
-      <c r="C218" t="s">
-        <v>358</v>
       </c>
       <c r="D218">
         <v>4069</v>
@@ -19311,13 +19311,13 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J218" s="2">
         <v>0</v>
@@ -19367,13 +19367,13 @@
     </row>
     <row r="219" spans="1:24">
       <c r="A219" t="s">
+        <v>354</v>
+      </c>
+      <c r="B219" t="s">
+        <v>359</v>
+      </c>
+      <c r="C219" t="s">
         <v>356</v>
-      </c>
-      <c r="B219" t="s">
-        <v>361</v>
-      </c>
-      <c r="C219" t="s">
-        <v>358</v>
       </c>
       <c r="D219">
         <v>4069</v>
@@ -19385,13 +19385,13 @@
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J219" s="2">
         <v>0</v>
@@ -19441,13 +19441,13 @@
     </row>
     <row r="220" spans="1:24">
       <c r="A220" t="s">
+        <v>412</v>
+      </c>
+      <c r="B220" t="s">
+        <v>413</v>
+      </c>
+      <c r="C220" t="s">
         <v>414</v>
-      </c>
-      <c r="B220" t="s">
-        <v>415</v>
-      </c>
-      <c r="C220" t="s">
-        <v>416</v>
       </c>
       <c r="D220">
         <v>321</v>
@@ -19459,13 +19459,13 @@
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J220" s="2">
         <v>0</v>
@@ -19515,13 +19515,13 @@
     </row>
     <row r="221" spans="1:24">
       <c r="A221" t="s">
+        <v>412</v>
+      </c>
+      <c r="B221" t="s">
+        <v>413</v>
+      </c>
+      <c r="C221" t="s">
         <v>414</v>
-      </c>
-      <c r="B221" t="s">
-        <v>415</v>
-      </c>
-      <c r="C221" t="s">
-        <v>416</v>
       </c>
       <c r="D221">
         <v>321</v>
@@ -19533,13 +19533,13 @@
         <v>0</v>
       </c>
       <c r="G221" t="s">
+        <v>415</v>
+      </c>
+      <c r="H221" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="I221" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J221" s="2">
         <v>0</v>
@@ -19589,13 +19589,13 @@
     </row>
     <row r="222" spans="1:24" ht="28">
       <c r="A222" t="s">
+        <v>423</v>
+      </c>
+      <c r="B222" t="s">
+        <v>424</v>
+      </c>
+      <c r="C222" t="s">
         <v>425</v>
-      </c>
-      <c r="B222" t="s">
-        <v>426</v>
-      </c>
-      <c r="C222" t="s">
-        <v>427</v>
       </c>
       <c r="D222">
         <v>453</v>
@@ -19607,13 +19607,13 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J222" s="2">
         <v>0</v>
@@ -19663,13 +19663,13 @@
     </row>
     <row r="223" spans="1:24" ht="84">
       <c r="A223" t="s">
+        <v>423</v>
+      </c>
+      <c r="B223" t="s">
+        <v>424</v>
+      </c>
+      <c r="C223" t="s">
         <v>425</v>
-      </c>
-      <c r="B223" t="s">
-        <v>426</v>
-      </c>
-      <c r="C223" t="s">
-        <v>427</v>
       </c>
       <c r="D223">
         <v>453</v>
@@ -19681,13 +19681,13 @@
         <v>0</v>
       </c>
       <c r="G223" t="s">
+        <v>426</v>
+      </c>
+      <c r="H223" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H223" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="I223" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J223" s="2">
         <v>0</v>
@@ -19737,13 +19737,13 @@
     </row>
     <row r="224" spans="1:24" ht="28">
       <c r="A224" t="s">
+        <v>191</v>
+      </c>
+      <c r="B224" t="s">
+        <v>192</v>
+      </c>
+      <c r="C224" t="s">
         <v>193</v>
-      </c>
-      <c r="B224" t="s">
-        <v>194</v>
-      </c>
-      <c r="C224" t="s">
-        <v>195</v>
       </c>
       <c r="D224">
         <v>2024</v>
@@ -19755,13 +19755,13 @@
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J224" s="2">
         <v>0</v>
@@ -19811,13 +19811,13 @@
     </row>
     <row r="225" spans="1:24" ht="56">
       <c r="A225" t="s">
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
+      <c r="C225" t="s">
         <v>116</v>
-      </c>
-      <c r="B225" t="s">
-        <v>117</v>
-      </c>
-      <c r="C225" t="s">
-        <v>118</v>
       </c>
       <c r="D225">
         <v>275</v>
@@ -19829,13 +19829,13 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J225" s="2">
         <v>0</v>
@@ -19885,13 +19885,13 @@
     </row>
     <row r="226" spans="1:24">
       <c r="A226" t="s">
+        <v>114</v>
+      </c>
+      <c r="B226" t="s">
+        <v>115</v>
+      </c>
+      <c r="C226" t="s">
         <v>116</v>
-      </c>
-      <c r="B226" t="s">
-        <v>117</v>
-      </c>
-      <c r="C226" t="s">
-        <v>118</v>
       </c>
       <c r="D226">
         <v>275</v>
@@ -19903,13 +19903,13 @@
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J226" s="2">
         <v>0</v>
@@ -19959,13 +19959,13 @@
     </row>
     <row r="227" spans="1:24" ht="28">
       <c r="A227" t="s">
+        <v>114</v>
+      </c>
+      <c r="B227" t="s">
+        <v>115</v>
+      </c>
+      <c r="C227" t="s">
         <v>116</v>
-      </c>
-      <c r="B227" t="s">
-        <v>117</v>
-      </c>
-      <c r="C227" t="s">
-        <v>118</v>
       </c>
       <c r="D227">
         <v>302</v>
@@ -19977,13 +19977,13 @@
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J227" s="2">
         <v>0</v>
@@ -20033,13 +20033,13 @@
     </row>
     <row r="228" spans="1:24">
       <c r="A228" t="s">
+        <v>114</v>
+      </c>
+      <c r="B228" t="s">
+        <v>115</v>
+      </c>
+      <c r="C228" t="s">
         <v>116</v>
-      </c>
-      <c r="B228" t="s">
-        <v>117</v>
-      </c>
-      <c r="C228" t="s">
-        <v>118</v>
       </c>
       <c r="D228">
         <v>302</v>
@@ -20051,13 +20051,13 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J228" s="2">
         <v>0</v>
@@ -20107,13 +20107,13 @@
     </row>
     <row r="229" spans="1:24">
       <c r="A229" t="s">
+        <v>114</v>
+      </c>
+      <c r="B229" t="s">
+        <v>115</v>
+      </c>
+      <c r="C229" t="s">
         <v>116</v>
-      </c>
-      <c r="B229" t="s">
-        <v>117</v>
-      </c>
-      <c r="C229" t="s">
-        <v>118</v>
       </c>
       <c r="D229">
         <v>318</v>
@@ -20125,13 +20125,13 @@
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J229" s="2">
         <v>0</v>
@@ -20181,13 +20181,13 @@
     </row>
     <row r="230" spans="1:24">
       <c r="A230" t="s">
+        <v>114</v>
+      </c>
+      <c r="B230" t="s">
+        <v>115</v>
+      </c>
+      <c r="C230" t="s">
         <v>116</v>
-      </c>
-      <c r="B230" t="s">
-        <v>117</v>
-      </c>
-      <c r="C230" t="s">
-        <v>118</v>
       </c>
       <c r="D230">
         <v>318</v>
@@ -20199,13 +20199,13 @@
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J230" s="2">
         <v>0</v>
@@ -20255,13 +20255,13 @@
     </row>
     <row r="231" spans="1:24">
       <c r="A231" t="s">
+        <v>114</v>
+      </c>
+      <c r="B231" t="s">
+        <v>115</v>
+      </c>
+      <c r="C231" t="s">
         <v>116</v>
-      </c>
-      <c r="B231" t="s">
-        <v>117</v>
-      </c>
-      <c r="C231" t="s">
-        <v>118</v>
       </c>
       <c r="D231">
         <v>334</v>
@@ -20273,13 +20273,13 @@
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J231" s="2">
         <v>0</v>
@@ -20329,13 +20329,13 @@
     </row>
     <row r="232" spans="1:24">
       <c r="A232" t="s">
+        <v>114</v>
+      </c>
+      <c r="B232" t="s">
+        <v>115</v>
+      </c>
+      <c r="C232" t="s">
         <v>116</v>
-      </c>
-      <c r="B232" t="s">
-        <v>117</v>
-      </c>
-      <c r="C232" t="s">
-        <v>118</v>
       </c>
       <c r="D232">
         <v>334</v>
@@ -20347,13 +20347,13 @@
         <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J232" s="2">
         <v>0</v>
@@ -20403,13 +20403,13 @@
     </row>
     <row r="233" spans="1:24">
       <c r="A233" t="s">
+        <v>114</v>
+      </c>
+      <c r="B233" t="s">
+        <v>115</v>
+      </c>
+      <c r="C233" t="s">
         <v>116</v>
-      </c>
-      <c r="B233" t="s">
-        <v>117</v>
-      </c>
-      <c r="C233" t="s">
-        <v>118</v>
       </c>
       <c r="D233">
         <v>341</v>
@@ -20421,13 +20421,13 @@
         <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J233" s="2">
         <v>0</v>
@@ -20477,13 +20477,13 @@
     </row>
     <row r="234" spans="1:24">
       <c r="A234" t="s">
+        <v>114</v>
+      </c>
+      <c r="B234" t="s">
+        <v>115</v>
+      </c>
+      <c r="C234" t="s">
         <v>116</v>
-      </c>
-      <c r="B234" t="s">
-        <v>117</v>
-      </c>
-      <c r="C234" t="s">
-        <v>118</v>
       </c>
       <c r="D234">
         <v>341</v>
@@ -20495,13 +20495,13 @@
         <v>0</v>
       </c>
       <c r="G234" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J234" s="2">
         <v>0</v>
@@ -20551,13 +20551,13 @@
     </row>
     <row r="235" spans="1:24" ht="42">
       <c r="A235" t="s">
+        <v>114</v>
+      </c>
+      <c r="B235" t="s">
+        <v>115</v>
+      </c>
+      <c r="C235" t="s">
         <v>116</v>
-      </c>
-      <c r="B235" t="s">
-        <v>117</v>
-      </c>
-      <c r="C235" t="s">
-        <v>118</v>
       </c>
       <c r="D235">
         <v>343</v>
@@ -20569,13 +20569,13 @@
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J235" s="2">
         <v>0</v>
@@ -20625,13 +20625,13 @@
     </row>
     <row r="236" spans="1:24">
       <c r="A236" t="s">
+        <v>114</v>
+      </c>
+      <c r="B236" t="s">
+        <v>115</v>
+      </c>
+      <c r="C236" t="s">
         <v>116</v>
-      </c>
-      <c r="B236" t="s">
-        <v>117</v>
-      </c>
-      <c r="C236" t="s">
-        <v>118</v>
       </c>
       <c r="D236">
         <v>343</v>
@@ -20643,13 +20643,13 @@
         <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J236" s="2">
         <v>0</v>
@@ -20699,13 +20699,13 @@
     </row>
     <row r="237" spans="1:24">
       <c r="A237" t="s">
+        <v>114</v>
+      </c>
+      <c r="B237" t="s">
+        <v>115</v>
+      </c>
+      <c r="C237" t="s">
         <v>116</v>
-      </c>
-      <c r="B237" t="s">
-        <v>117</v>
-      </c>
-      <c r="C237" t="s">
-        <v>118</v>
       </c>
       <c r="D237">
         <v>350</v>
@@ -20717,13 +20717,13 @@
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J237" s="2">
         <v>0</v>
@@ -20773,13 +20773,13 @@
     </row>
     <row r="238" spans="1:24">
       <c r="A238" t="s">
+        <v>114</v>
+      </c>
+      <c r="B238" t="s">
+        <v>115</v>
+      </c>
+      <c r="C238" t="s">
         <v>116</v>
-      </c>
-      <c r="B238" t="s">
-        <v>117</v>
-      </c>
-      <c r="C238" t="s">
-        <v>118</v>
       </c>
       <c r="D238">
         <v>377</v>
@@ -20791,13 +20791,13 @@
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J238" s="2">
         <v>0</v>
@@ -20847,13 +20847,13 @@
     </row>
     <row r="239" spans="1:24">
       <c r="A239" t="s">
+        <v>114</v>
+      </c>
+      <c r="B239" t="s">
+        <v>115</v>
+      </c>
+      <c r="C239" t="s">
         <v>116</v>
-      </c>
-      <c r="B239" t="s">
-        <v>117</v>
-      </c>
-      <c r="C239" t="s">
-        <v>118</v>
       </c>
       <c r="D239">
         <v>377</v>
@@ -20865,13 +20865,13 @@
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J239" s="2">
         <v>0</v>
@@ -20921,13 +20921,13 @@
     </row>
     <row r="240" spans="1:24">
       <c r="A240" t="s">
+        <v>114</v>
+      </c>
+      <c r="B240" t="s">
+        <v>115</v>
+      </c>
+      <c r="C240" t="s">
         <v>116</v>
-      </c>
-      <c r="B240" t="s">
-        <v>117</v>
-      </c>
-      <c r="C240" t="s">
-        <v>118</v>
       </c>
       <c r="D240">
         <v>380</v>
@@ -20939,13 +20939,13 @@
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J240" s="2">
         <v>0</v>
@@ -20995,13 +20995,13 @@
     </row>
     <row r="241" spans="1:24">
       <c r="A241" t="s">
+        <v>114</v>
+      </c>
+      <c r="B241" t="s">
+        <v>115</v>
+      </c>
+      <c r="C241" t="s">
         <v>116</v>
-      </c>
-      <c r="B241" t="s">
-        <v>117</v>
-      </c>
-      <c r="C241" t="s">
-        <v>118</v>
       </c>
       <c r="D241">
         <v>380</v>
@@ -21013,13 +21013,13 @@
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J241" s="2">
         <v>0</v>
@@ -21069,13 +21069,13 @@
     </row>
     <row r="242" spans="1:24" ht="28">
       <c r="A242" t="s">
+        <v>114</v>
+      </c>
+      <c r="B242" t="s">
+        <v>115</v>
+      </c>
+      <c r="C242" t="s">
         <v>116</v>
-      </c>
-      <c r="B242" t="s">
-        <v>117</v>
-      </c>
-      <c r="C242" t="s">
-        <v>118</v>
       </c>
       <c r="D242">
         <v>383</v>
@@ -21087,13 +21087,13 @@
         <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J242" s="2">
         <v>0</v>
@@ -21143,13 +21143,13 @@
     </row>
     <row r="243" spans="1:24">
       <c r="A243" t="s">
+        <v>114</v>
+      </c>
+      <c r="B243" t="s">
+        <v>115</v>
+      </c>
+      <c r="C243" t="s">
         <v>116</v>
-      </c>
-      <c r="B243" t="s">
-        <v>117</v>
-      </c>
-      <c r="C243" t="s">
-        <v>118</v>
       </c>
       <c r="D243">
         <v>383</v>
@@ -21161,13 +21161,13 @@
         <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J243" s="2">
         <v>0</v>
@@ -21217,13 +21217,13 @@
     </row>
     <row r="244" spans="1:24" ht="84">
       <c r="A244" t="s">
+        <v>207</v>
+      </c>
+      <c r="B244" t="s">
+        <v>208</v>
+      </c>
+      <c r="C244" t="s">
         <v>209</v>
-      </c>
-      <c r="B244" t="s">
-        <v>210</v>
-      </c>
-      <c r="C244" t="s">
-        <v>211</v>
       </c>
       <c r="D244">
         <v>12</v>
@@ -21235,13 +21235,13 @@
         <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J244" s="2">
         <v>0</v>
@@ -21291,13 +21291,13 @@
     </row>
     <row r="245" spans="1:24">
       <c r="A245" t="s">
+        <v>207</v>
+      </c>
+      <c r="B245" t="s">
+        <v>208</v>
+      </c>
+      <c r="C245" t="s">
         <v>209</v>
-      </c>
-      <c r="B245" t="s">
-        <v>210</v>
-      </c>
-      <c r="C245" t="s">
-        <v>211</v>
       </c>
       <c r="D245">
         <v>12</v>
@@ -21309,13 +21309,13 @@
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J245" s="2">
         <v>0</v>
@@ -21365,13 +21365,13 @@
     </row>
     <row r="246" spans="1:24">
       <c r="A246" t="s">
+        <v>207</v>
+      </c>
+      <c r="B246" t="s">
+        <v>208</v>
+      </c>
+      <c r="C246" t="s">
         <v>209</v>
-      </c>
-      <c r="B246" t="s">
-        <v>210</v>
-      </c>
-      <c r="C246" t="s">
-        <v>211</v>
       </c>
       <c r="D246">
         <v>12</v>
@@ -21383,13 +21383,13 @@
         <v>0</v>
       </c>
       <c r="G246" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J246" s="2">
         <v>0</v>
@@ -21439,13 +21439,13 @@
     </row>
     <row r="247" spans="1:24">
       <c r="A247" t="s">
+        <v>207</v>
+      </c>
+      <c r="B247" t="s">
+        <v>208</v>
+      </c>
+      <c r="C247" t="s">
         <v>209</v>
-      </c>
-      <c r="B247" t="s">
-        <v>210</v>
-      </c>
-      <c r="C247" t="s">
-        <v>211</v>
       </c>
       <c r="D247">
         <v>83</v>
@@ -21457,13 +21457,13 @@
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J247" s="2">
         <v>0</v>
@@ -21513,13 +21513,13 @@
     </row>
     <row r="248" spans="1:24">
       <c r="A248" t="s">
+        <v>207</v>
+      </c>
+      <c r="B248" t="s">
+        <v>208</v>
+      </c>
+      <c r="C248" t="s">
         <v>209</v>
-      </c>
-      <c r="B248" t="s">
-        <v>210</v>
-      </c>
-      <c r="C248" t="s">
-        <v>211</v>
       </c>
       <c r="D248">
         <v>83</v>
@@ -21531,13 +21531,13 @@
         <v>0</v>
       </c>
       <c r="G248" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J248" s="2">
         <v>0</v>
@@ -21587,13 +21587,13 @@
     </row>
     <row r="249" spans="1:24">
       <c r="A249" t="s">
+        <v>207</v>
+      </c>
+      <c r="B249" t="s">
+        <v>208</v>
+      </c>
+      <c r="C249" t="s">
         <v>209</v>
-      </c>
-      <c r="B249" t="s">
-        <v>210</v>
-      </c>
-      <c r="C249" t="s">
-        <v>211</v>
       </c>
       <c r="D249">
         <v>83</v>
@@ -21605,13 +21605,13 @@
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J249" s="2">
         <v>0</v>
